--- a/SEO/Roadmap_Steve_28january2021_02.xlsx
+++ b/SEO/Roadmap_Steve_28january2021_02.xlsx
@@ -55,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -75,6 +76,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,11 +149,11 @@
   </sheetPr>
   <dimension ref="A4:A12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.43"/>
   </cols>
@@ -195,7 +197,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
